--- a/bbcTest.xlsx
+++ b/bbcTest.xlsx
@@ -396,7 +396,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Galib</v>
+        <v>Name Edited in existing column</v>
       </c>
       <c r="B4">
         <v>12</v>
